--- a/src/steffs_pharmacy/medicine_inventory.xlsx
+++ b/src/steffs_pharmacy/medicine_inventory.xlsx
@@ -430,7 +430,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
     <col width="19.83203125" customWidth="1" min="2" max="2"/>
     <col width="32" customWidth="1" min="3" max="3"/>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
